--- a/app/config/tables/triagem/forms/hospcheck/hospcheck.xlsx
+++ b/app/config/tables/triagem/forms/hospcheck/hospcheck.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAC2662-9BCB-44BA-85E8-80C8ED047B03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0313BB-7192-40DD-9EFD-5726355D200F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="4" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId5"/>
-    <sheet name="model" sheetId="6" r:id="rId6"/>
+    <sheet name="initial" sheetId="7" r:id="rId1"/>
+    <sheet name="settings" sheetId="1" r:id="rId2"/>
+    <sheet name="survey" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="calculates" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId6"/>
+    <sheet name="model" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="446">
   <si>
     <t>setting_name</t>
   </si>
@@ -1227,24 +1228,12 @@
     <t>saidacom</t>
   </si>
   <si>
-    <t>cam1i</t>
-  </si>
-  <si>
-    <t>cam1na</t>
-  </si>
-  <si>
     <t>saidana</t>
   </si>
   <si>
     <t>vcartT</t>
   </si>
   <si>
-    <t>sec1</t>
-  </si>
-  <si>
-    <t>cam1</t>
-  </si>
-  <si>
     <t>vcartR</t>
   </si>
   <si>
@@ -1329,18 +1318,12 @@
     <t>roundsdate</t>
   </si>
   <si>
-    <t>cam1in</t>
-  </si>
-  <si>
     <t>camq</t>
   </si>
   <si>
     <t>roundq</t>
   </si>
   <si>
-    <t>sec1in</t>
-  </si>
-  <si>
     <t>secq</t>
   </si>
   <si>
@@ -1368,12 +1351,6 @@
     <t>Paulo - check</t>
   </si>
   <si>
-    <t>sec1q</t>
-  </si>
-  <si>
-    <t>cam1q</t>
-  </si>
-  <si>
     <t>N - Disnotri</t>
   </si>
   <si>
@@ -1383,7 +1360,16 @@
     <t>NA - Don't know</t>
   </si>
   <si>
-    <t>test</t>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>vdcart</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1467,12 +1453,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1480,12 +1460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1541,14 +1515,12 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -1840,6 +1812,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16427CC5-13CF-462F-AA2E-3BB7A141CD11}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1886,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -1954,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:P459"/>
   <sheetViews>
@@ -4256,7 +4281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D206"/>
   <sheetViews>
@@ -6980,7 +7005,7 @@
     </row>
     <row r="189" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>304</v>
@@ -6991,196 +7016,196 @@
     </row>
     <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B200" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B201" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B202" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B203" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B204" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7189,7 +7214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C4F0F-BFC8-4609-90AE-137765AD6084}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7231,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB7104-0CF4-465A-808C-30895389A8B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7279,12 +7304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A128" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7688,7 +7713,7 @@
         <v>383</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C36" s="10" t="b">
         <v>0</v>
@@ -7817,7 +7842,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>8</v>
@@ -7959,651 +7984,651 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="14" t="b">
+      <c r="C61" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="14" t="b">
+      <c r="C62" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="14" t="b">
+      <c r="C63" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="14" t="b">
+      <c r="C64" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="14" t="b">
+      <c r="C65" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="14" t="b">
+      <c r="C66" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="14" t="b">
+      <c r="C67" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="14" t="b">
+      <c r="C68" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="14" t="b">
+      <c r="C69" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="14" t="b">
+      <c r="C70" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="14" t="b">
+      <c r="C71" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="14" t="b">
+      <c r="C72" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="14" t="b">
+      <c r="C73" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="14" t="b">
+      <c r="C74" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="14" t="b">
+      <c r="C75" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="14" t="b">
+      <c r="C76" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="14" t="b">
+      <c r="C77" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="14" t="b">
+      <c r="C78" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="14" t="b">
+      <c r="C79" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="14" t="b">
+      <c r="C80" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="14" t="b">
+      <c r="C81" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="14" t="b">
+      <c r="C82" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="14" t="b">
+      <c r="C83" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="14" t="b">
+      <c r="C84" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="14" t="b">
+      <c r="C85" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="14" t="b">
+      <c r="C86" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="14" t="b">
+      <c r="C87" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="14" t="b">
+      <c r="C88" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="14" t="b">
+      <c r="C89" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="14" t="b">
+      <c r="C90" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="14" t="b">
+      <c r="C91" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="14" t="b">
+      <c r="C92" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="14" t="b">
+      <c r="C93" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="14" t="b">
+      <c r="C94" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="14" t="b">
+      <c r="C95" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="14" t="b">
+      <c r="C96" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="14" t="b">
+      <c r="C97" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="14" t="b">
+      <c r="C98" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="14" t="b">
+      <c r="C99" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="14" t="b">
+      <c r="C100" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="14" t="b">
+      <c r="C101" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="14" t="b">
+      <c r="C102" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="14" t="b">
+      <c r="C103" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="14" t="b">
+      <c r="C104" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C105" s="14" t="b">
+      <c r="C105" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="14" t="b">
+      <c r="C106" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="14" t="b">
+      <c r="C107" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C108" s="14" t="b">
+      <c r="C108" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C109" s="14" t="b">
+      <c r="C109" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="14" t="b">
+      <c r="C110" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="14" t="b">
+      <c r="C111" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="14" t="b">
+      <c r="C112" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="14" t="b">
+      <c r="C113" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="14" t="b">
+      <c r="C114" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="14" t="b">
+      <c r="C115" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="14" t="b">
+      <c r="C116" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="14" t="b">
+      <c r="C117" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="14" t="b">
+      <c r="C118" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="14" t="b">
+      <c r="C119" s="13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8641,301 +8666,205 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="17" t="b">
+      <c r="C123" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="17" t="b">
+      <c r="C124" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="17" t="b">
+      <c r="C125" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C126" s="17" t="b">
+      <c r="C126" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="19" t="b">
+      <c r="A127" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="B137" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B130" s="19" t="s">
+      <c r="B138" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C132" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="20" t="b">
+      <c r="C140" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C136" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C139" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C141" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C143" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C149" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/triagem/forms/hospcheck/hospcheck.xlsx
+++ b/app/config/tables/triagem/forms/hospcheck/hospcheck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0313BB-7192-40DD-9EFD-5726355D200F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E7DCE-3370-4687-96B0-2EF69DD13262}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3105" yWindow="1425" windowWidth="14400" windowHeight="9495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="502">
   <si>
     <t>setting_name</t>
   </si>
@@ -670,9 +670,6 @@
     <t>BI - Bijago</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>No CNO number</t>
   </si>
   <si>
@@ -895,9 +892,6 @@
     <t>cnoq</t>
   </si>
   <si>
-    <t>cnonr</t>
-  </si>
-  <si>
     <t>telmaeq</t>
   </si>
   <si>
@@ -931,9 +925,6 @@
     <t>bcgnse3s</t>
   </si>
   <si>
-    <t>camonr</t>
-  </si>
-  <si>
     <t>camoq</t>
   </si>
   <si>
@@ -1036,9 +1027,6 @@
     <t>meses</t>
   </si>
   <si>
-    <t>ncart</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -1174,12 +1162,6 @@
     <t>prodiag1n</t>
   </si>
   <si>
-    <t>prodiag1i</t>
-  </si>
-  <si>
-    <t>prodiag2i</t>
-  </si>
-  <si>
     <t>prodiag2n</t>
   </si>
   <si>
@@ -1222,9 +1204,6 @@
     <t>Still admitted</t>
   </si>
   <si>
-    <t>saidat</t>
-  </si>
-  <si>
     <t>saidacom</t>
   </si>
   <si>
@@ -1243,133 +1222,322 @@
     <t>sec</t>
   </si>
   <si>
+    <t>camNA</t>
+  </si>
+  <si>
+    <t>Bed unknown</t>
+  </si>
+  <si>
+    <t>defdiag1</t>
+  </si>
+  <si>
+    <t>defdiag2</t>
+  </si>
+  <si>
+    <t>defdiag1n</t>
+  </si>
+  <si>
+    <t>defdiag2n</t>
+  </si>
+  <si>
+    <t>roundsdate</t>
+  </si>
+  <si>
+    <t>camq</t>
+  </si>
+  <si>
+    <t>roundq</t>
+  </si>
+  <si>
+    <t>secq</t>
+  </si>
+  <si>
+    <t>Child has moved section</t>
+  </si>
+  <si>
+    <t>Child has moved bed</t>
+  </si>
+  <si>
+    <t>hospcheck</t>
+  </si>
+  <si>
+    <t>Paulo - check</t>
+  </si>
+  <si>
+    <t>NA - Don't know</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>vdcart</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Neonatologia</t>
+  </si>
+  <si>
+    <t>Berco</t>
+  </si>
+  <si>
+    <t>Recobre</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>Isolamento</t>
+  </si>
+  <si>
+    <t>Recobre MSF</t>
+  </si>
+  <si>
+    <t>Gastro</t>
+  </si>
+  <si>
+    <t>Miscalanea</t>
+  </si>
+  <si>
+    <t>Creni</t>
+  </si>
+  <si>
+    <t>Observacao</t>
+  </si>
+  <si>
+    <t>Respiratoria</t>
+  </si>
+  <si>
+    <t>UCIP</t>
+  </si>
+  <si>
+    <t>Wambo</t>
+  </si>
+  <si>
+    <t>campcode</t>
+  </si>
+  <si>
+    <t>troc_cart</t>
+  </si>
+  <si>
+    <t>falh</t>
+  </si>
+  <si>
+    <t>falm</t>
+  </si>
+  <si>
+    <t>gepor</t>
+  </si>
+  <si>
+    <t>geresl</t>
+  </si>
+  <si>
+    <t>hemogli1</t>
+  </si>
+  <si>
+    <t>horainth</t>
+  </si>
+  <si>
+    <t>horaintm</t>
+  </si>
+  <si>
+    <t>leucocito</t>
+  </si>
+  <si>
+    <t>sanguegrp</t>
+  </si>
+  <si>
+    <t>transtot</t>
+  </si>
+  <si>
+    <t>tdr</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Not performed</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>A - MSF neonotologia</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B - Berco</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>G - Gastro</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>I - Isolado</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>M - Miscellaneous</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O - Observacon</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>U - Unidade curidade intensivo</t>
-  </si>
-  <si>
-    <t>camNA</t>
-  </si>
-  <si>
-    <t>Bed unknown</t>
-  </si>
-  <si>
-    <t>defdiag1</t>
-  </si>
-  <si>
-    <t>defdiag2</t>
-  </si>
-  <si>
-    <t>defdiag1i</t>
-  </si>
-  <si>
-    <t>defdiag1n</t>
-  </si>
-  <si>
-    <t>defdiag2i</t>
-  </si>
-  <si>
-    <t>defdiag2n</t>
-  </si>
-  <si>
-    <t>roundsdate</t>
-  </si>
-  <si>
-    <t>camq</t>
-  </si>
-  <si>
-    <t>roundq</t>
-  </si>
-  <si>
-    <t>secq</t>
-  </si>
-  <si>
-    <t>Child has moved section</t>
-  </si>
-  <si>
-    <t>Child has moved bed</t>
-  </si>
-  <si>
-    <t>Child still admitted</t>
-  </si>
-  <si>
-    <t>Child discharged</t>
-  </si>
-  <si>
-    <t>Child gone</t>
-  </si>
-  <si>
-    <t>Child dead</t>
-  </si>
-  <si>
-    <t>hospcheck</t>
-  </si>
-  <si>
-    <t>Paulo - check</t>
-  </si>
-  <si>
-    <t>N - Disnotri</t>
-  </si>
-  <si>
-    <t>R - Respiratori</t>
-  </si>
-  <si>
-    <t>NA - Don't know</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
-  </si>
-  <si>
-    <t>vdcart</t>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>falq</t>
+  </si>
+  <si>
+    <t>hemogli1q</t>
+  </si>
+  <si>
+    <t>horaintq</t>
+  </si>
+  <si>
+    <t>leucocitoq</t>
+  </si>
+  <si>
+    <t>transtotq</t>
+  </si>
+  <si>
+    <t>timeNA</t>
+  </si>
+  <si>
+    <t>Time unknown</t>
+  </si>
+  <si>
+    <t>cnoNA</t>
+  </si>
+  <si>
+    <t>Name of child</t>
+  </si>
+  <si>
+    <t>Nome do filho(a)</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>Status of child</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data('smxcau') != '55' &amp;&amp; data('smxcau') != null</t>
+  </si>
+  <si>
+    <t>Date of exit</t>
+  </si>
+  <si>
+    <t>Data de saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('saidana') != null </t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data('saidana')</t>
+  </si>
+  <si>
+    <t>Why is date unknown?</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>data('saidat')</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Time of hospitalization</t>
+  </si>
+  <si>
+    <t>Hora de internamento</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>data('horaintq') != null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gota especias espessa </t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Hemoglobina</t>
+  </si>
+  <si>
+    <t>data('hemogli1q')!=null</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Leucocitos</t>
+  </si>
+  <si>
+    <t>data('leucocitoq')!=null</t>
+  </si>
+  <si>
+    <t>Rapid diagnostic test for malaria</t>
+  </si>
+  <si>
+    <t>Definitive diagnosis 1</t>
+  </si>
+  <si>
+    <t>Diagnostico definitivo 1</t>
+  </si>
+  <si>
+    <t>data('defdiag1n') !=null</t>
+  </si>
+  <si>
+    <t>Definitive diagnosis 2</t>
+  </si>
+  <si>
+    <t>Diagnostico definitivo 2</t>
+  </si>
+  <si>
+    <t>data('defdiag2n') !=null</t>
+  </si>
+  <si>
+    <t>Total amount of blood transfusion (mL)</t>
+  </si>
+  <si>
+    <t>Transfucao de sangue total (mL)</t>
+  </si>
+  <si>
+    <t>data('transtotq')!=null</t>
+  </si>
+  <si>
+    <t>Blood type</t>
+  </si>
+  <si>
+    <t>Grupo sanguino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('smxcau') == '53' </t>
+  </si>
+  <si>
+    <t>Time of death</t>
+  </si>
+  <si>
+    <t>Hora de falecimento</t>
+  </si>
+  <si>
+    <t>data('falq') != null</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,6 +1643,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1498,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1521,12 +1695,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1843,7 +2049,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1851,12 +2057,12 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +2075,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20190502</v>
+        <v>20191303</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,10 +2141,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -1960,7 +2166,7 @@
         <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:P459"/>
+  <dimension ref="A1:Q737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,13 +2208,14 @@
     <col min="10" max="10" width="30.28515625" customWidth="1"/>
     <col min="11" max="11" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -2045,25 +2252,28 @@
       <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2071,151 +2281,937 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" t="s">
+        <v>457</v>
+      </c>
+      <c r="P6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" t="s">
+        <v>380</v>
+      </c>
+      <c r="L14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G21" t="s">
+        <v>472</v>
+      </c>
+      <c r="H21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" t="s">
+        <v>476</v>
+      </c>
+      <c r="H23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>453</v>
+      </c>
+      <c r="F24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>465</v>
+      </c>
+      <c r="F26" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>465</v>
+      </c>
+      <c r="F27" t="s">
+        <v>437</v>
+      </c>
+      <c r="L27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>434</v>
+      </c>
+      <c r="G32" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>435</v>
+      </c>
+      <c r="G33" t="s">
+        <v>480</v>
+      </c>
+      <c r="H33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F36" t="s">
+        <v>435</v>
+      </c>
+      <c r="L36">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>465</v>
+      </c>
+      <c r="F41" t="s">
+        <v>438</v>
+      </c>
+      <c r="L41">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" t="s">
+        <v>441</v>
+      </c>
+      <c r="G43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>360</v>
+      </c>
+      <c r="F46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" t="s">
+        <v>487</v>
+      </c>
+      <c r="H46" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>465</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L49">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>360</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>490</v>
+      </c>
+      <c r="H51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>374</v>
+      </c>
+      <c r="F52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" t="s">
+        <v>493</v>
+      </c>
+      <c r="H58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>460</v>
+      </c>
+      <c r="C60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>465</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="L61">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>445</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>496</v>
+      </c>
+      <c r="H63" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>471</v>
+      </c>
+      <c r="G67" t="s">
+        <v>499</v>
+      </c>
+      <c r="H67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" t="s">
+        <v>474</v>
+      </c>
+      <c r="H68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>432</v>
+      </c>
+      <c r="G69" t="s">
+        <v>476</v>
+      </c>
+      <c r="H69" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>460</v>
+      </c>
+      <c r="C71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>465</v>
+      </c>
+      <c r="F72" t="s">
+        <v>431</v>
+      </c>
+      <c r="L72">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>465</v>
+      </c>
+      <c r="F73" t="s">
+        <v>432</v>
+      </c>
+      <c r="L73">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="1"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M105" s="1"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" s="1"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135" s="1"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144" s="1"/>
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I148" s="3"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I152" s="3"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I153" s="3"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I159" s="3"/>
-    </row>
-    <row r="161" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I169" s="3"/>
-    </row>
-    <row r="170" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I171" s="3"/>
-    </row>
-    <row r="173" spans="6:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="6:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="6:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="6:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="6:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="6:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="5:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -2226,8 +3222,12 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
-    </row>
-    <row r="181" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P179" s="1"/>
+    </row>
+    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -2239,8 +3239,9 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
-    </row>
-    <row r="182" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P181" s="1"/>
+    </row>
+    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -2252,8 +3253,9 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
-    </row>
-    <row r="183" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P182" s="1"/>
+    </row>
+    <row r="183" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -2264,8 +3266,9 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
-    </row>
-    <row r="184" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P183" s="1"/>
+    </row>
+    <row r="184" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -2273,11 +3276,11 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
-    </row>
-    <row r="185" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P184" s="1"/>
+    </row>
+    <row r="185" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -2285,11 +3288,11 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
-    </row>
-    <row r="186" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P185" s="1"/>
+    </row>
+    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -2300,8 +3303,9 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
-    </row>
-    <row r="187" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -2312,8 +3316,9 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
-    </row>
-    <row r="188" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P187" s="1"/>
+    </row>
+    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -2324,8 +3329,9 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
-    </row>
-    <row r="189" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P188" s="1"/>
+    </row>
+    <row r="189" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -2336,8 +3342,9 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
-    </row>
-    <row r="190" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P189" s="1"/>
+    </row>
+    <row r="190" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -2348,8 +3355,9 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
-    </row>
-    <row r="191" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P190" s="1"/>
+    </row>
+    <row r="191" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -2361,8 +3369,9 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
-    </row>
-    <row r="192" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P191" s="1"/>
+    </row>
+    <row r="192" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -2374,8 +3383,9 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
-    </row>
-    <row r="193" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P192" s="1"/>
+    </row>
+    <row r="193" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -2386,8 +3396,9 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
-    </row>
-    <row r="194" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P193" s="1"/>
+    </row>
+    <row r="194" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -2395,11 +3406,11 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
-    </row>
-    <row r="195" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P194" s="1"/>
+    </row>
+    <row r="195" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -2407,11 +3418,11 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
-    </row>
-    <row r="196" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -2422,8 +3433,39 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
-    </row>
-    <row r="209" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P196" s="1"/>
+    </row>
+    <row r="197" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M203" s="1"/>
+    </row>
+    <row r="206" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -2435,8 +3477,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
-    </row>
-    <row r="210" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q209" s="1"/>
+    </row>
+    <row r="210" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -2448,8 +3491,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
-    </row>
-    <row r="211" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q210" s="1"/>
+    </row>
+    <row r="211" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -2461,8 +3505,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
-    </row>
-    <row r="212" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q211" s="1"/>
+    </row>
+    <row r="212" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -2474,8 +3519,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
-    </row>
-    <row r="213" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -2483,12 +3529,12 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
-    </row>
-    <row r="214" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -2496,12 +3542,12 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
-    </row>
-    <row r="215" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -2513,8 +3559,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
-    </row>
-    <row r="216" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -2526,8 +3573,15 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
-    </row>
-    <row r="219" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M217" s="1"/>
+    </row>
+    <row r="218" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M218" s="1"/>
+    </row>
+    <row r="219" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -2538,8 +3592,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-    </row>
-    <row r="220" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q219" s="1"/>
+    </row>
+    <row r="220" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -2550,8 +3605,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-    </row>
-    <row r="221" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q220" s="1"/>
+    </row>
+    <row r="221" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -2562,8 +3618,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
-    </row>
-    <row r="222" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q221" s="1"/>
+    </row>
+    <row r="222" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -2574,31 +3631,32 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
-    </row>
-    <row r="223" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q222" s="1"/>
+    </row>
+    <row r="223" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
-    </row>
-    <row r="224" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q223" s="1"/>
+    </row>
+    <row r="224" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
-    </row>
-    <row r="225" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P224" s="1"/>
+    </row>
+    <row r="225" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -2610,8 +3668,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
-    </row>
-    <row r="226" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q225" s="1"/>
+    </row>
+    <row r="226" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -2623,8 +3682,12 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-    </row>
-    <row r="228" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q226" s="1"/>
+    </row>
+    <row r="227" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M227" s="1"/>
+    </row>
+    <row r="228" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -2636,8 +3699,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
-    </row>
-    <row r="229" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q228" s="1"/>
+    </row>
+    <row r="229" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -2649,8 +3713,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
-    </row>
-    <row r="230" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q229" s="1"/>
+    </row>
+    <row r="230" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -2662,8 +3727,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-    </row>
-    <row r="231" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q230" s="1"/>
+    </row>
+    <row r="231" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -2675,8 +3741,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
-    </row>
-    <row r="232" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q231" s="1"/>
+    </row>
+    <row r="232" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -2688,8 +3755,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q232" s="1"/>
+    </row>
+    <row r="233" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -2697,12 +3765,12 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q233" s="1"/>
+    </row>
+    <row r="234" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -2710,12 +3778,12 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q234" s="1"/>
+    </row>
+    <row r="235" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -2727,11 +3795,16 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q235" s="1"/>
+    </row>
+    <row r="236" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F236" s="1"/>
-    </row>
-    <row r="238" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M236" s="1"/>
+    </row>
+    <row r="237" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M237" s="1"/>
+    </row>
+    <row r="238" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -2742,8 +3815,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q238" s="1"/>
+    </row>
+    <row r="239" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -2754,8 +3828,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q239" s="1"/>
+    </row>
+    <row r="240" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -2766,8 +3841,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-    </row>
-    <row r="241" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q240" s="1"/>
+    </row>
+    <row r="241" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -2778,8 +3854,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-    </row>
-    <row r="242" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q241" s="1"/>
+    </row>
+    <row r="242" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -2790,20 +3867,21 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-    </row>
-    <row r="243" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q242" s="1"/>
+    </row>
+    <row r="243" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
-    </row>
-    <row r="244" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -2811,12 +3889,12 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-    </row>
-    <row r="245" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q244" s="1"/>
+    </row>
+    <row r="245" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -2827,11 +3905,16 @@
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
-    </row>
-    <row r="246" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P245" s="1"/>
+    </row>
+    <row r="246" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
-    </row>
-    <row r="248" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M246" s="1"/>
+    </row>
+    <row r="247" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -2842,8 +3925,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-    </row>
-    <row r="249" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q248" s="1"/>
+    </row>
+    <row r="249" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -2854,8 +3938,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
-    </row>
-    <row r="250" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q249" s="1"/>
+    </row>
+    <row r="250" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -2866,8 +3951,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
-    </row>
-    <row r="251" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q250" s="1"/>
+    </row>
+    <row r="251" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -2878,32 +3964,33 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
-    </row>
-    <row r="252" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q251" s="1"/>
+    </row>
+    <row r="252" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
-    </row>
-    <row r="253" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q252" s="1"/>
+    </row>
+    <row r="253" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
-    </row>
-    <row r="254" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -2915,8 +4002,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
-    </row>
-    <row r="255" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q254" s="1"/>
+    </row>
+    <row r="255" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -2927,11 +4015,16 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
-    </row>
-    <row r="256" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P255" s="1"/>
+    </row>
+    <row r="256" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
-    </row>
-    <row r="258" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M256" s="1"/>
+    </row>
+    <row r="257" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M257" s="1"/>
+    </row>
+    <row r="258" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -2942,8 +4035,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
-    </row>
-    <row r="259" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q258" s="1"/>
+    </row>
+    <row r="259" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -2954,8 +4048,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
-    </row>
-    <row r="260" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q259" s="1"/>
+    </row>
+    <row r="260" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -2966,8 +4061,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
-    </row>
-    <row r="261" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q260" s="1"/>
+    </row>
+    <row r="261" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -2978,32 +4074,33 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
-    </row>
-    <row r="262" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q261" s="1"/>
+    </row>
+    <row r="262" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
-      <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
-    </row>
-    <row r="263" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q262" s="1"/>
+    </row>
+    <row r="263" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
-      <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
-    </row>
-    <row r="264" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q263" s="1"/>
+    </row>
+    <row r="264" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -3015,8 +4112,15 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
-    </row>
-    <row r="267" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q264" s="1"/>
+    </row>
+    <row r="265" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M265" s="1"/>
+    </row>
+    <row r="266" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M266" s="1"/>
+    </row>
+    <row r="267" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -3028,8 +4132,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-    </row>
-    <row r="268" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q267" s="1"/>
+    </row>
+    <row r="268" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -3041,8 +4146,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
-    </row>
-    <row r="269" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q268" s="1"/>
+    </row>
+    <row r="269" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -3054,8 +4160,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-    </row>
-    <row r="270" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q269" s="1"/>
+    </row>
+    <row r="270" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -3067,8 +4174,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
-    </row>
-    <row r="271" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q270" s="1"/>
+    </row>
+    <row r="271" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -3076,12 +4184,12 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
-      <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
-    </row>
-    <row r="272" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q271" s="1"/>
+    </row>
+    <row r="272" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -3093,8 +4201,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
-    </row>
-    <row r="273" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -3102,12 +4211,12 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
-      <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
-    </row>
-    <row r="274" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q273" s="1"/>
+    </row>
+    <row r="274" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -3115,87 +4224,87 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
-      <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
-    </row>
-    <row r="275" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q274" s="1"/>
+    </row>
+    <row r="275" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F275" s="1"/>
     </row>
-    <row r="277" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
-      <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-    </row>
-    <row r="278" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q277" s="1"/>
+    </row>
+    <row r="278" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
-      <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
-    </row>
-    <row r="279" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q278" s="1"/>
+    </row>
+    <row r="279" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-    </row>
-    <row r="280" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q279" s="1"/>
+    </row>
+    <row r="280" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
-      <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
-    </row>
-    <row r="281" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q280" s="1"/>
+    </row>
+    <row r="281" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
-      <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
-    </row>
-    <row r="282" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q281" s="1"/>
+    </row>
+    <row r="282" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
-      <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
-    </row>
-    <row r="283" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -3203,12 +4312,12 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
-      <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
-    </row>
-    <row r="284" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q283" s="1"/>
+    </row>
+    <row r="284" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -3216,86 +4325,86 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
-    </row>
-    <row r="285" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P284" s="1"/>
+    </row>
+    <row r="285" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F285" s="1"/>
     </row>
-    <row r="287" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
-    </row>
-    <row r="288" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q287" s="1"/>
+    </row>
+    <row r="288" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
-    </row>
-    <row r="289" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q288" s="1"/>
+    </row>
+    <row r="289" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
-      <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
-    </row>
-    <row r="290" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q289" s="1"/>
+    </row>
+    <row r="290" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
-    </row>
-    <row r="291" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q290" s="1"/>
+    </row>
+    <row r="291" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
-      <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
-    </row>
-    <row r="292" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q291" s="1"/>
+    </row>
+    <row r="292" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
-      <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
-    </row>
-    <row r="293" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q292" s="1"/>
+    </row>
+    <row r="293" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -3303,12 +4412,12 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
-      <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
-    </row>
-    <row r="294" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q293" s="1"/>
+    </row>
+    <row r="294" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -3316,86 +4425,86 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
-    </row>
-    <row r="295" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P294" s="1"/>
+    </row>
+    <row r="295" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F295" s="1"/>
     </row>
-    <row r="297" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
-    </row>
-    <row r="298" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q297" s="1"/>
+    </row>
+    <row r="298" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
-    </row>
-    <row r="299" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q298" s="1"/>
+    </row>
+    <row r="299" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
-    </row>
-    <row r="300" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q299" s="1"/>
+    </row>
+    <row r="300" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
-    </row>
-    <row r="301" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q300" s="1"/>
+    </row>
+    <row r="301" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
-      <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
-    </row>
-    <row r="302" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q301" s="1"/>
+    </row>
+    <row r="302" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
-    </row>
-    <row r="303" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q302" s="1"/>
+    </row>
+    <row r="303" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -3403,12 +4512,12 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
-      <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
-    </row>
-    <row r="306" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q303" s="1"/>
+    </row>
+    <row r="306" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -3416,12 +4525,12 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-    </row>
-    <row r="307" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q306" s="1"/>
+    </row>
+    <row r="307" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -3429,12 +4538,12 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
-    </row>
-    <row r="308" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q307" s="1"/>
+    </row>
+    <row r="308" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -3442,12 +4551,12 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
-      <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-    </row>
-    <row r="309" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q308" s="1"/>
+    </row>
+    <row r="309" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -3455,12 +4564,12 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
-      <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
-    </row>
-    <row r="310" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q309" s="1"/>
+    </row>
+    <row r="310" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -3468,12 +4577,12 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
-      <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
-    </row>
-    <row r="311" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q310" s="1"/>
+    </row>
+    <row r="311" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -3481,12 +4590,12 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
-      <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
-    </row>
-    <row r="312" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q311" s="1"/>
+    </row>
+    <row r="312" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -3494,12 +4603,12 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
-      <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
-    </row>
-    <row r="313" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q312" s="1"/>
+    </row>
+    <row r="313" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -3507,87 +4616,87 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
-      <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
-    </row>
-    <row r="314" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q313" s="1"/>
+    </row>
+    <row r="314" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F314" s="1"/>
     </row>
-    <row r="316" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
-      <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-    </row>
-    <row r="317" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q316" s="1"/>
+    </row>
+    <row r="317" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
-      <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-    </row>
-    <row r="318" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q317" s="1"/>
+    </row>
+    <row r="318" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
-      <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-    </row>
-    <row r="319" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q318" s="1"/>
+    </row>
+    <row r="319" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
-      <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-    </row>
-    <row r="320" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q319" s="1"/>
+    </row>
+    <row r="320" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
-      <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-    </row>
-    <row r="321" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q320" s="1"/>
+    </row>
+    <row r="321" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
-      <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-    </row>
-    <row r="322" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q321" s="1"/>
+    </row>
+    <row r="322" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -3595,12 +4704,12 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
-      <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-    </row>
-    <row r="323" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q322" s="1"/>
+    </row>
+    <row r="323" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -3608,86 +4717,86 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
-      <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
-    </row>
-    <row r="324" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P323" s="1"/>
+    </row>
+    <row r="324" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F324" s="1"/>
     </row>
-    <row r="326" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q326" s="1"/>
+    </row>
+    <row r="327" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q327" s="1"/>
+    </row>
+    <row r="328" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
-      <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q328" s="1"/>
+    </row>
+    <row r="329" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
-      <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q329" s="1"/>
+    </row>
+    <row r="330" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
-      <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q330" s="1"/>
+    </row>
+    <row r="331" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
-      <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q331" s="1"/>
+    </row>
+    <row r="332" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -3695,12 +4804,12 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q332" s="1"/>
+    </row>
+    <row r="333" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
@@ -3708,26 +4817,29 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
-    </row>
-    <row r="334" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P333" s="1"/>
+    </row>
+    <row r="334" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F334" s="1"/>
     </row>
-    <row r="336" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M335" s="1"/>
+    </row>
+    <row r="336" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q336" s="1"/>
+    </row>
+    <row r="337" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -3738,8 +4850,9 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
-    </row>
-    <row r="338" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q337" s="1"/>
+    </row>
+    <row r="338" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -3750,8 +4863,9 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
-    </row>
-    <row r="339" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q338" s="1"/>
+    </row>
+    <row r="339" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -3762,8 +4876,9 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
-    </row>
-    <row r="340" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q339" s="1"/>
+    </row>
+    <row r="340" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -3774,8 +4889,9 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
-    </row>
-    <row r="341" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q340" s="1"/>
+    </row>
+    <row r="341" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -3786,8 +4902,9 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
-    </row>
-    <row r="342" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q341" s="1"/>
+    </row>
+    <row r="342" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
@@ -3799,8 +4916,12 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
-    </row>
-    <row r="345" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q342" s="1"/>
+    </row>
+    <row r="343" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M343" s="1"/>
+    </row>
+    <row r="345" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -3808,12 +4929,12 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
-      <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-    </row>
-    <row r="346" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q345" s="1"/>
+    </row>
+    <row r="346" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -3825,8 +4946,9 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-    </row>
-    <row r="347" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q346" s="1"/>
+    </row>
+    <row r="347" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -3838,8 +4960,9 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q347" s="1"/>
+    </row>
+    <row r="348" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -3851,8 +4974,9 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
-    </row>
-    <row r="349" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q348" s="1"/>
+    </row>
+    <row r="349" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -3864,8 +4988,9 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
-    </row>
-    <row r="350" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q349" s="1"/>
+    </row>
+    <row r="350" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
@@ -3877,8 +5002,9 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
-    </row>
-    <row r="351" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q350" s="1"/>
+    </row>
+    <row r="351" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -3890,8 +5016,9 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
-    </row>
-    <row r="352" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q351" s="1"/>
+    </row>
+    <row r="352" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -3902,83 +5029,85 @@
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
-    </row>
-    <row r="353" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P352" s="1"/>
+    </row>
+    <row r="353" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F353" s="1"/>
-    </row>
-    <row r="355" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M353" s="1"/>
+    </row>
+    <row r="355" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-    </row>
-    <row r="356" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q355" s="1"/>
+    </row>
+    <row r="356" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
-    </row>
-    <row r="357" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q356" s="1"/>
+    </row>
+    <row r="357" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-    </row>
-    <row r="358" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q357" s="1"/>
+    </row>
+    <row r="358" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
-    </row>
-    <row r="359" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
-    </row>
-    <row r="360" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q359" s="1"/>
+    </row>
+    <row r="360" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-    </row>
-    <row r="361" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
@@ -3986,12 +5115,12 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
-    </row>
-    <row r="363" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="363" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -3999,36 +5128,92 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
-      <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
-    </row>
-    <row r="367" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P363" s="1"/>
+    </row>
+    <row r="365" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M365" s="1"/>
+    </row>
+    <row r="366" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M366" s="1"/>
+    </row>
+    <row r="367" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F367" s="1"/>
-    </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M367" s="1"/>
+    </row>
+    <row r="368" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="M368" s="1"/>
+    </row>
+    <row r="369" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M369" s="1"/>
+    </row>
+    <row r="370" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M370" s="1"/>
+    </row>
+    <row r="371" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M371" s="1"/>
+    </row>
+    <row r="372" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M372" s="1"/>
+    </row>
+    <row r="375" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F375" s="1"/>
-    </row>
-    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M375" s="1"/>
+    </row>
+    <row r="376" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M376" s="1"/>
+    </row>
+    <row r="377" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M377" s="1"/>
+    </row>
+    <row r="378" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="1"/>
+    </row>
+    <row r="379" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M379" s="1"/>
+    </row>
+    <row r="380" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M380" s="1"/>
+    </row>
+    <row r="381" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M381" s="1"/>
+    </row>
+    <row r="382" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F382" s="1"/>
-    </row>
-    <row r="385" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M382" s="1"/>
+    </row>
+    <row r="384" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M384" s="1"/>
+    </row>
+    <row r="385" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F385" s="1"/>
-    </row>
-    <row r="386" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M385" s="1"/>
+    </row>
+    <row r="386" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F386" s="1"/>
-    </row>
-    <row r="389" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M386" s="1"/>
+    </row>
+    <row r="387" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M387" s="1"/>
+    </row>
+    <row r="388" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M388" s="1"/>
+    </row>
+    <row r="389" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F389" s="1"/>
-    </row>
-    <row r="390" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M389" s="1"/>
+    </row>
+    <row r="390" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-    </row>
-    <row r="391" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M390" s="1"/>
+    </row>
+    <row r="391" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F391" s="1"/>
-    </row>
-    <row r="394" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M391" s="1"/>
+    </row>
+    <row r="394" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
@@ -4039,8 +5224,9 @@
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
-    </row>
-    <row r="395" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P394" s="1"/>
+    </row>
+    <row r="395" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
@@ -4051,8 +5237,9 @@
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
-    </row>
-    <row r="396" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P395" s="1"/>
+    </row>
+    <row r="396" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
@@ -4063,8 +5250,117 @@
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
-    </row>
-    <row r="442" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P396" s="1"/>
+    </row>
+    <row r="397" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M397" s="1"/>
+    </row>
+    <row r="398" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M398" s="1"/>
+    </row>
+    <row r="399" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M399" s="1"/>
+    </row>
+    <row r="400" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M400" s="1"/>
+    </row>
+    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M401" s="1"/>
+    </row>
+    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M404" s="1"/>
+    </row>
+    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M405" s="1"/>
+    </row>
+    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M406" s="1"/>
+    </row>
+    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M407" s="1"/>
+    </row>
+    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M408" s="1"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" s="1"/>
+    </row>
+    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M410" s="1"/>
+    </row>
+    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M411" s="1"/>
+    </row>
+    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M414" s="1"/>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M415" s="1"/>
+    </row>
+    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="1"/>
+    </row>
+    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="1"/>
+    </row>
+    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="1"/>
+    </row>
+    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="1"/>
+    </row>
+    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="1"/>
+    </row>
+    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="1"/>
+    </row>
+    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M424" s="1"/>
+    </row>
+    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M425" s="1"/>
+    </row>
+    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M426" s="1"/>
+    </row>
+    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="1"/>
+    </row>
+    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="1"/>
+    </row>
+    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="1"/>
+    </row>
+    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="1"/>
+    </row>
+    <row r="433" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M433" s="1"/>
+    </row>
+    <row r="434" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M434" s="1"/>
+    </row>
+    <row r="435" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M435" s="1"/>
+    </row>
+    <row r="436" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M436" s="1"/>
+    </row>
+    <row r="437" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M437" s="1"/>
+    </row>
+    <row r="438" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M438" s="1"/>
+    </row>
+    <row r="439" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M439" s="1"/>
+    </row>
+    <row r="440" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M440" s="1"/>
+    </row>
+    <row r="442" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
@@ -4072,11 +5368,11 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
-      <c r="M442" s="1"/>
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
-    </row>
-    <row r="443" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P442" s="1"/>
+    </row>
+    <row r="443" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
@@ -4087,8 +5383,12 @@
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
-    </row>
-    <row r="445" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P443" s="1"/>
+    </row>
+    <row r="444" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M444" s="1"/>
+    </row>
+    <row r="445" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
@@ -4100,8 +5400,9 @@
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
-    </row>
-    <row r="446" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P445" s="1"/>
+    </row>
+    <row r="446" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
@@ -4113,8 +5414,9 @@
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
-    </row>
-    <row r="447" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P446" s="1"/>
+    </row>
+    <row r="447" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -4125,8 +5427,9 @@
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
-    </row>
-    <row r="448" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P447" s="1"/>
+    </row>
+    <row r="448" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
@@ -4137,8 +5440,9 @@
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
-    </row>
-    <row r="449" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P448" s="1"/>
+    </row>
+    <row r="449" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
@@ -4149,8 +5453,9 @@
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
-    </row>
-    <row r="450" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P449" s="1"/>
+    </row>
+    <row r="450" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
@@ -4161,8 +5466,9 @@
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
-    </row>
-    <row r="451" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P450" s="1"/>
+    </row>
+    <row r="451" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
@@ -4170,11 +5476,11 @@
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
-      <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
-    </row>
-    <row r="452" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P451" s="1"/>
+    </row>
+    <row r="452" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
@@ -4182,11 +5488,11 @@
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
-      <c r="M452" s="1"/>
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
-    </row>
-    <row r="453" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P452" s="1"/>
+    </row>
+    <row r="453" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
@@ -4197,8 +5503,9 @@
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
-    </row>
-    <row r="454" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P453" s="1"/>
+    </row>
+    <row r="454" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
@@ -4210,8 +5517,9 @@
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
-    </row>
-    <row r="455" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P454" s="1"/>
+    </row>
+    <row r="455" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
@@ -4223,8 +5531,9 @@
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
-    </row>
-    <row r="456" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P455" s="1"/>
+    </row>
+    <row r="456" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
@@ -4235,8 +5544,9 @@
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
-    </row>
-    <row r="457" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P456" s="1"/>
+    </row>
+    <row r="457" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
@@ -4247,8 +5557,9 @@
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
-    </row>
-    <row r="458" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P457" s="1"/>
+    </row>
+    <row r="458" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
@@ -4259,8 +5570,9 @@
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
-    </row>
-    <row r="459" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="P458" s="1"/>
+    </row>
+    <row r="459" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
@@ -4271,10 +5583,434 @@
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
+      <c r="P459" s="1"/>
+    </row>
+    <row r="462" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M462" s="1"/>
+    </row>
+    <row r="463" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M463" s="1"/>
+    </row>
+    <row r="464" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M464" s="1"/>
+    </row>
+    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="1"/>
+    </row>
+    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="1"/>
+    </row>
+    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="1"/>
+    </row>
+    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="1"/>
+    </row>
+    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="1"/>
+    </row>
+    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="1"/>
+    </row>
+    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="1"/>
+    </row>
+    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="1"/>
+    </row>
+    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="1"/>
+    </row>
+    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="1"/>
+    </row>
+    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="1"/>
+    </row>
+    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="1"/>
+    </row>
+    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M479" s="1"/>
+    </row>
+    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="1"/>
+    </row>
+    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="1"/>
+    </row>
+    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="1"/>
+    </row>
+    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="1"/>
+    </row>
+    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="1"/>
+    </row>
+    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="1"/>
+    </row>
+    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="1"/>
+    </row>
+    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="1"/>
+    </row>
+    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="1"/>
+    </row>
+    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="1"/>
+    </row>
+    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="1"/>
+    </row>
+    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="1"/>
+    </row>
+    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="1"/>
+    </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="1"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="1"/>
+    </row>
+    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M501" s="1"/>
+    </row>
+    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="1"/>
+    </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="1"/>
+    </row>
+    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="1"/>
+    </row>
+    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="1"/>
+    </row>
+    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="1"/>
+    </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="1"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="1"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="1"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="1"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="1"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="1"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="1"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="1"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="1"/>
+    </row>
+    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M519" s="1"/>
+    </row>
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="1"/>
+    </row>
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="1"/>
+    </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="1"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="1"/>
+    </row>
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="1"/>
+    </row>
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M559" s="1"/>
+    </row>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="1"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="1"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="1"/>
+    </row>
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M565" s="1"/>
+    </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="1"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="1"/>
+    </row>
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M568" s="1"/>
+    </row>
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M569" s="1"/>
+    </row>
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="1"/>
+    </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="1"/>
+    </row>
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="1"/>
+    </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="1"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="1"/>
+    </row>
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M577" s="1"/>
+    </row>
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M578" s="1"/>
+    </row>
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M579" s="1"/>
+    </row>
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M580" s="1"/>
+    </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="1"/>
+    </row>
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M584" s="1"/>
+    </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="1"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="1"/>
+    </row>
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M587" s="1"/>
+    </row>
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M588" s="1"/>
+    </row>
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M589" s="1"/>
+    </row>
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M590" s="1"/>
+    </row>
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M591" s="1"/>
+    </row>
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M594" s="1"/>
+    </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="1"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="1"/>
+    </row>
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M597" s="1"/>
+    </row>
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M598" s="1"/>
+    </row>
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="1"/>
+    </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="1"/>
+    </row>
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="1"/>
+    </row>
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M604" s="1"/>
+    </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="1"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="1"/>
+    </row>
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M607" s="1"/>
+    </row>
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M608" s="1"/>
+    </row>
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M609" s="1"/>
+    </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="1"/>
+    </row>
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M611" s="1"/>
+    </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="1"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="1"/>
+    </row>
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M616" s="1"/>
+    </row>
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M617" s="1"/>
+    </row>
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M618" s="1"/>
+    </row>
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="1"/>
+    </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="1"/>
+    </row>
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M623" s="1"/>
+    </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="1"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="1"/>
+    </row>
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M626" s="1"/>
+    </row>
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M627" s="1"/>
+    </row>
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="1"/>
+    </row>
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M629" s="1"/>
+    </row>
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M630" s="1"/>
+    </row>
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M633" s="1"/>
+    </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="1"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="1"/>
+    </row>
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M636" s="1"/>
+    </row>
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M637" s="1"/>
+    </row>
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M638" s="1"/>
+    </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="1"/>
+    </row>
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M641" s="1"/>
+    </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="1"/>
+    </row>
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M673" s="1"/>
+    </row>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="1"/>
+    </row>
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M720" s="1"/>
+    </row>
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M721" s="1"/>
+    </row>
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M723" s="1"/>
+    </row>
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M724" s="1"/>
+    </row>
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M725" s="1"/>
+    </row>
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M726" s="1"/>
+    </row>
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M727" s="1"/>
+    </row>
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M728" s="1"/>
+    </row>
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M729" s="1"/>
+    </row>
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M730" s="1"/>
+    </row>
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M731" s="1"/>
+    </row>
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M732" s="1"/>
+    </row>
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M733" s="1"/>
+    </row>
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M734" s="1"/>
+    </row>
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M735" s="1"/>
+    </row>
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M736" s="1"/>
+    </row>
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M737" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L345:O345 I345:J345">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="L345 I345:J345 N345:P345">
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M623">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M501">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M254">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4283,21 +6019,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +6047,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -4326,7 +6062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4341,7 +6077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -4356,7 +6092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -4371,7 +6107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
@@ -4386,7 +6122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -4401,7 +6137,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
@@ -4416,7 +6152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -4431,7 +6167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -4446,7 +6182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -4461,7 +6197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -4476,7 +6212,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -4491,7 +6227,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -4505,29 +6241,31 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -4541,7 +6279,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -4555,7 +6293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -4563,13 +6301,13 @@
         <v>210</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -4583,7 +6321,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -4598,7 +6336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -4613,7 +6351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -4628,7 +6366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -4643,7 +6381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -4658,7 +6396,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -4673,7 +6411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -4688,7 +6426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
@@ -4703,7 +6441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -4718,7 +6456,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -4733,7 +6471,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -4748,7 +6486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -4763,7 +6501,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -4778,7 +6516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4793,7 +6531,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -4808,7 +6546,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -4823,7 +6561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>39</v>
       </c>
@@ -4838,9 +6576,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>55</v>
@@ -4852,9 +6590,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>57</v>
@@ -4866,9 +6604,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>120</v>
@@ -4880,9 +6618,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>58</v>
@@ -4894,9 +6632,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>59</v>
@@ -4908,9 +6646,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>60</v>
@@ -4922,23 +6660,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>63</v>
@@ -4950,12 +6688,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>40</v>
@@ -4964,9 +6702,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>115</v>
@@ -4978,9 +6716,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>117</v>
@@ -4992,23 +6730,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>56</v>
@@ -5020,23 +6758,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>118</v>
@@ -5048,70 +6786,73 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>123</v>
@@ -5123,23 +6864,23 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>63</v>
@@ -5151,12 +6892,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>40</v>
@@ -5165,12 +6906,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>97</v>
@@ -5179,29 +6920,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>147</v>
       </c>
@@ -5210,13 +6953,13 @@
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>147</v>
       </c>
@@ -5225,12 +6968,13 @@
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>167</v>
@@ -5242,9 +6986,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>115</v>
@@ -5256,9 +7000,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>170</v>
@@ -5270,9 +7014,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>86</v>
@@ -5284,9 +7028,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>168</v>
@@ -5298,9 +7042,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>87</v>
@@ -5312,9 +7056,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>169</v>
@@ -5326,9 +7070,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>172</v>
@@ -5340,9 +7084,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>171</v>
@@ -5354,9 +7098,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>173</v>
@@ -5368,9 +7112,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>174</v>
@@ -5382,9 +7126,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>175</v>
@@ -5396,9 +7140,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>176</v>
@@ -5410,9 +7154,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>177</v>
@@ -5424,9 +7168,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>178</v>
@@ -5438,9 +7182,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>179</v>
@@ -5452,9 +7196,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>180</v>
@@ -5466,7 +7210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>181</v>
       </c>
@@ -5480,7 +7224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>190</v>
       </c>
@@ -5494,12 +7238,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>97</v>
@@ -5508,29 +7252,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>185</v>
       </c>
@@ -5544,12 +7290,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>97</v>
@@ -5558,29 +7304,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>186</v>
       </c>
@@ -5594,12 +7342,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>97</v>
@@ -5608,29 +7356,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>187</v>
       </c>
@@ -5644,12 +7394,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>97</v>
@@ -5658,29 +7408,31 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>191</v>
       </c>
@@ -5694,12 +7446,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>97</v>
@@ -5708,136 +7460,138 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -5850,9 +7604,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -5867,9 +7621,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -5884,9 +7638,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -5901,9 +7655,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -5918,9 +7672,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -5935,9 +7689,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -5952,9 +7706,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -5969,9 +7723,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -5986,9 +7740,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -6003,9 +7757,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -6018,9 +7772,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -6035,9 +7789,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -6052,9 +7806,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -6069,9 +7823,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -6086,9 +7840,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6103,9 +7857,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -6120,9 +7874,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -6137,9 +7891,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -6154,9 +7908,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -6171,9 +7925,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -6186,9 +7940,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -6203,9 +7957,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -6220,9 +7974,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -6237,9 +7991,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -6254,9 +8008,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -6271,9 +8025,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -6286,9 +8040,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -6303,9 +8057,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -6320,9 +8074,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -6337,9 +8091,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -6352,9 +8106,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -6369,9 +8123,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -6386,9 +8140,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -6403,9 +8157,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -6420,9 +8174,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -6437,9 +8191,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -6454,9 +8208,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -6471,9 +8225,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -6488,9 +8242,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -6505,9 +8259,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -6520,9 +8274,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -6537,9 +8291,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -6554,9 +8308,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -6571,9 +8325,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -6586,162 +8340,162 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="B167" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>97</v>
@@ -6750,35 +8504,37 @@
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C168" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="B170" s="5" t="str">
-        <f>"99999"</f>
-        <v>99999</v>
+        <f>"999"</f>
+        <v>999</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>40</v>
@@ -6787,426 +8543,602 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C188" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="B190" s="5" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B200" s="7" t="str">
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B201" s="5" t="str">
+      <c r="C204" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B202" s="7" t="str">
+      <c r="C205" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B206" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B203" s="5" t="str">
+      <c r="C206" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B207" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B204" s="5" t="str">
+      <c r="C207" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B205" s="5" t="str">
+      <c r="C208" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B209" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B206" s="5" t="str">
+      <c r="C209" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>436</v>
-      </c>
+      <c r="C210" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B211" s="7" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B212" s="7" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B213" s="7" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B214" s="7" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D217" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7237,7 +9169,7 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7248,7 +9180,7 @@
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +9214,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7296,7 +9228,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7306,10 +9238,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A128" sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7328,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -7336,7 +9268,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>20</v>
@@ -7347,10 +9279,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" s="10" t="b">
         <v>0</v>
@@ -7358,10 +9290,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" s="10" t="b">
         <v>0</v>
@@ -7369,10 +9301,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -7380,7 +9312,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -7391,7 +9323,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -7402,7 +9334,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -7413,7 +9345,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>20</v>
@@ -7424,18 +9356,18 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="b">
+        <v>429</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -7446,7 +9378,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -7457,10 +9389,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10" t="b">
         <v>0</v>
@@ -7468,7 +9400,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>36</v>
@@ -7479,10 +9411,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C15" s="10" t="b">
         <v>0</v>
@@ -7490,10 +9422,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C16" s="10" t="b">
         <v>0</v>
@@ -7501,21 +9433,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>325</v>
+      <c r="A18" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="C18" s="10" t="b">
         <v>0</v>
@@ -7523,7 +9455,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -7534,10 +9466,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10" t="b">
         <v>0</v>
@@ -7545,10 +9477,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C21" s="10" t="b">
         <v>0</v>
@@ -7556,10 +9488,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="10" t="b">
         <v>0</v>
@@ -7567,10 +9499,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23" s="10" t="b">
         <v>0</v>
@@ -7578,10 +9510,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="b">
         <v>0</v>
@@ -7589,32 +9521,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C25" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>332</v>
+      <c r="A26" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C26" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>333</v>
+      <c r="A27" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C27" s="10" t="b">
         <v>0</v>
@@ -7622,10 +9554,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C28" s="10" t="b">
         <v>0</v>
@@ -7633,7 +9565,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>8</v>
@@ -7644,7 +9576,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>8</v>
@@ -7655,7 +9587,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>8</v>
@@ -7666,10 +9598,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C32" s="10" t="b">
         <v>0</v>
@@ -7677,7 +9609,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7688,7 +9620,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>9</v>
@@ -7699,7 +9631,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>36</v>
@@ -7710,7 +9642,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>8</v>
@@ -7721,7 +9653,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -7732,7 +9664,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -7743,7 +9675,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -7754,7 +9686,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>8</v>
@@ -7765,7 +9697,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -7776,7 +9708,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>8</v>
@@ -7787,7 +9719,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>20</v>
@@ -7798,7 +9730,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>20</v>
@@ -7809,7 +9741,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>20</v>
@@ -7820,43 +9752,43 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C46" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>351</v>
+      <c r="A47" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C47" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>399</v>
+      <c r="A48" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C48" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>352</v>
+      <c r="A49" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C49" s="10" t="b">
         <v>0</v>
@@ -7864,7 +9796,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -7875,7 +9807,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>21</v>
@@ -7886,7 +9818,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -7897,7 +9829,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -7908,7 +9840,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -7919,7 +9851,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -7930,7 +9862,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -7940,8 +9872,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>360</v>
+      <c r="A57" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -7951,8 +9883,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>361</v>
+      <c r="A58" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -7963,7 +9895,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -7974,7 +9906,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -7984,22 +9916,22 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="13" t="b">
-        <v>1</v>
+      <c r="A61" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C62" s="13" t="b">
         <v>1</v>
@@ -8007,10 +9939,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C63" s="13" t="b">
         <v>1</v>
@@ -8018,10 +9950,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C64" s="13" t="b">
         <v>1</v>
@@ -8029,10 +9961,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C65" s="13" t="b">
         <v>1</v>
@@ -8040,10 +9972,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C66" s="13" t="b">
         <v>1</v>
@@ -8051,10 +9983,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C67" s="13" t="b">
         <v>1</v>
@@ -8062,7 +9994,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>146</v>
@@ -8073,10 +10005,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C69" s="13" t="b">
         <v>1</v>
@@ -8084,10 +10016,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C70" s="13" t="b">
         <v>1</v>
@@ -8095,7 +10027,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>36</v>
@@ -8106,10 +10038,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C72" s="13" t="b">
         <v>1</v>
@@ -8117,21 +10049,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="C73" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>98</v>
+      <c r="A74" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C74" s="13" t="b">
         <v>1</v>
@@ -8139,10 +10071,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C75" s="13" t="b">
         <v>1</v>
@@ -8150,10 +10082,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C76" s="13" t="b">
         <v>1</v>
@@ -8161,10 +10093,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C77" s="13" t="b">
         <v>1</v>
@@ -8172,10 +10104,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C78" s="13" t="b">
         <v>1</v>
@@ -8183,21 +10115,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C79" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>249</v>
+      <c r="A80" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C80" s="13" t="b">
         <v>1</v>
@@ -8260,7 +10192,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>36</v>
@@ -8271,10 +10203,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C87" s="13" t="b">
         <v>1</v>
@@ -8282,10 +10214,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C88" s="13" t="b">
         <v>1</v>
@@ -8293,10 +10225,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C89" s="13" t="b">
         <v>1</v>
@@ -8304,10 +10236,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C90" s="13" t="b">
         <v>1</v>
@@ -8318,7 +10250,7 @@
         <v>290</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C91" s="13" t="b">
         <v>1</v>
@@ -8326,18 +10258,18 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C92" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>289</v>
+      <c r="A93" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>146</v>
@@ -8348,10 +10280,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C94" s="13" t="b">
         <v>1</v>
@@ -8359,10 +10291,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C95" s="13" t="b">
         <v>1</v>
@@ -8370,10 +10302,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C96" s="13" t="b">
         <v>1</v>
@@ -8381,10 +10313,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C97" s="13" t="b">
         <v>1</v>
@@ -8392,10 +10324,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C98" s="13" t="b">
         <v>1</v>
@@ -8403,10 +10335,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C99" s="13" t="b">
         <v>1</v>
@@ -8414,10 +10346,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C100" s="13" t="b">
         <v>1</v>
@@ -8425,10 +10357,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C101" s="13" t="b">
         <v>1</v>
@@ -8436,10 +10368,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C102" s="13" t="b">
         <v>1</v>
@@ -8447,10 +10379,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C103" s="13" t="b">
         <v>1</v>
@@ -8458,10 +10390,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C104" s="13" t="b">
         <v>1</v>
@@ -8469,10 +10401,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C105" s="13" t="b">
         <v>1</v>
@@ -8480,10 +10412,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C106" s="13" t="b">
         <v>1</v>
@@ -8491,10 +10423,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C107" s="13" t="b">
         <v>1</v>
@@ -8502,10 +10434,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C108" s="13" t="b">
         <v>1</v>
@@ -8513,10 +10445,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C109" s="13" t="b">
         <v>1</v>
@@ -8524,10 +10456,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C110" s="13" t="b">
         <v>1</v>
@@ -8535,10 +10467,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C111" s="13" t="b">
         <v>1</v>
@@ -8546,10 +10478,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C112" s="13" t="b">
         <v>1</v>
@@ -8557,10 +10489,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C113" s="13" t="b">
         <v>1</v>
@@ -8568,10 +10500,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C114" s="13" t="b">
         <v>1</v>
@@ -8579,10 +10511,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C115" s="13" t="b">
         <v>1</v>
@@ -8590,10 +10522,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C116" s="13" t="b">
         <v>1</v>
@@ -8601,10 +10533,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C117" s="13" t="b">
         <v>1</v>
@@ -8612,32 +10544,32 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C118" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="13" t="b">
-        <v>1</v>
+      <c r="A119" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="12" t="b">
         <v>0</v>
@@ -8645,7 +10577,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>8</v>
@@ -8655,66 +10587,66 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="12" t="b">
-        <v>0</v>
+      <c r="A122" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C123" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="16" t="b">
-        <v>1</v>
+      <c r="A124" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" s="16" t="b">
-        <v>1</v>
+      <c r="A125" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C126" s="16" t="b">
-        <v>1</v>
+      <c r="A126" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C127" s="17" t="b">
         <v>0</v>
@@ -8722,10 +10654,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C128" s="17" t="b">
         <v>0</v>
@@ -8733,10 +10665,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C129" s="17" t="b">
         <v>0</v>
@@ -8744,10 +10676,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="C130" s="17" t="b">
         <v>0</v>
@@ -8755,10 +10687,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C131" s="17" t="b">
         <v>0</v>
@@ -8766,10 +10698,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C132" s="17" t="b">
         <v>0</v>
@@ -8777,10 +10709,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C133" s="17" t="b">
         <v>0</v>
@@ -8788,7 +10720,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>8</v>
@@ -8798,73 +10730,191 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B135" s="18" t="s">
+      <c r="A135" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B137" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C135" s="18" t="b">
+      <c r="C137" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="B136" s="18" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="18" t="b">
+      <c r="C144" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="18" t="b">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B138" s="18" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B146" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="18" t="b">
+      <c r="C146" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="B139" s="18" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="18" t="b">
+      <c r="C147" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B140" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C140" s="18" t="b">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
